--- a/tests/artifact/script/Mobile-PurchaseOrder.xlsx
+++ b/tests/artifact/script/Mobile-PurchaseOrder.xlsx
@@ -2307,7 +2307,7 @@
     <t>Login to the GNU khata with valid credentails</t>
   </si>
   <si>
-    <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|mobilelogin)</t>
+    <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|mobileLogin)</t>
   </si>
   <si>
     <t>username=${login.username}
@@ -6926,7 +6926,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="15.5" outlineLevelRow="4"/>
@@ -7137,7 +7137,7 @@
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD5"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -12459,7 +12459,7 @@
       <c r="N46" s="27"/>
       <c r="O46" s="26"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="28" spans="2:15">
+    <row r="47" s="3" customFormat="1" ht="15.5" spans="2:15">
       <c r="B47" s="24" t="s">
         <v>764</v>
       </c>
@@ -16143,9 +16143,9 @@
   <dimension ref="A1:P235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A58" sqref="$A58:$XFD58"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -16357,7 +16357,7 @@
       <c r="N7" s="27"/>
       <c r="O7" s="26"/>
     </row>
-    <row r="8" s="3" customFormat="1" spans="2:15">
+    <row r="8" s="3" customFormat="1" ht="15.5" spans="2:15">
       <c r="B8" s="24" t="s">
         <v>764</v>
       </c>
